--- a/Persstatistiek_template.xlsx
+++ b/Persstatistiek_template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\Persstatistiek\"/>
@@ -16,12 +16,12 @@
     <sheet name="Dependencies" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Map1Beleid_Primair1" hidden="1">Primair_Beleid[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Map1Deelbeleid_Secundair1" hidden="1">Secundair_Deelbeleid[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Map1Persbericht_Secundair1" hidden="1">Secundair_Persbericht</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxPrimair_Verzender1" hidden="1">Primair_Verzender[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxSecundair_Afzender1" hidden="1">Secundair_Afzender[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxTertitair_AfzenderDeelbeleid1" hidden="1">Tertitair_AfzenderDeelbeleid[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Map1Beleid_Primair" hidden="1">Primair_Beleid[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Map1Deelbeleid_Secundair" hidden="1">Secundair_Deelbeleid[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Map1Persbericht_Secundair" hidden="1">Secundair_Persbericht</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxPrimair_Verzender" hidden="1">Primair_Verzender[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxSecundair_Afzender" hidden="1">Secundair_Afzender[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxTertitair_AfzenderDeelbeleid" hidden="1">Tertitair_AfzenderDeelbeleid[]</definedName>
     <definedName name="Afzenders">Secundair_Afzender[Afzender]</definedName>
     <definedName name="Beleid">Dependencies!$A$4:$A$11</definedName>
     <definedName name="Deelbeleid">Secundair_Deelbeleid[Deelbeleid]</definedName>
@@ -36,12 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="Tertitair_AfzenderDeelbeleid-50523817-cc12-457b-af67-8523a36ee230" name="Tertitair_AfzenderDeelbeleid" connection="WorksheetConnection_Persstatistiek_template.xlsx!Tertitair_AfzenderDeelbeleid"/>
+          <x15:modelTable id="Secundair_Afzender-f8384c22-f48b-406a-bf9d-f5a55de3661f" name="Secundair_Afzender" connection="WorksheetConnection_Persstatistiek_template.xlsx!Secundair_Afzender"/>
+          <x15:modelTable id="Primair_Verzender-21887ef5-567c-4ec2-8d8b-695dcebb63ab" name="Primair_Verzender" connection="WorksheetConnection_Persstatistiek_template.xlsx!Primair_Verzender"/>
+          <x15:modelTable id="Persbericht_Secundair-0a485bac-1b1e-485c-b0c7-72082a1f9cbe" name="Persbericht_Secundair" connection="WorksheetConnection_Map1!Persbericht_Secundair"/>
+          <x15:modelTable id="Deelbeleid_Secundair-a746e5ab-4215-491b-850b-6cd82f2cbeb4" name="Deelbeleid_Secundair" connection="WorksheetConnection_Map1!Deelbeleid_Secundair"/>
           <x15:modelTable id="Beleid_Primair-ec84cfe6-1e36-4375-b4d9-735e11c365bd" name="Beleid_Primair" connection="WorksheetConnection_Map1!Beleid_Primair"/>
-          <x15:modelTable id="Deelbeleid_Secundair-a746e5ab-4215-491b-850b-6cd82f2cbeb4" name="Deelbeleid_Secundair" connection="WorksheetConnection_Map1!Deelbeleid_Secundair"/>
-          <x15:modelTable id="Persbericht_Secundair-0a485bac-1b1e-485c-b0c7-72082a1f9cbe" name="Persbericht_Secundair" connection="WorksheetConnection_Map1!Persbericht_Secundair"/>
-          <x15:modelTable id="Primair_Verzender-21887ef5-567c-4ec2-8d8b-695dcebb63ab" name="Primair_Verzender" connection="WorksheetConnection_Persstatistiek_template.xlsx!Primair_Verzender"/>
-          <x15:modelTable id="Secundair_Afzender-f8384c22-f48b-406a-bf9d-f5a55de3661f" name="Secundair_Afzender" connection="WorksheetConnection_Persstatistiek_template.xlsx!Secundair_Afzender"/>
-          <x15:modelTable id="Tertitair_AfzenderDeelbeleid-50523817-cc12-457b-af67-8523a36ee230" name="Tertitair_AfzenderDeelbeleid" connection="WorksheetConnection_Persstatistiek_template.xlsx!Tertitair_AfzenderDeelbeleid"/>
         </x15:modelTables>
         <x15:modelRelationships>
           <x15:modelRelationship fromTable="Deelbeleid_Secundair" fromColumn="Beleid" toTable="Beleid_Primair" toColumn="Primairy: Beleid"/>
@@ -105,7 +105,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Beleid_Primair-ec84cfe6-1e36-4375-b4d9-735e11c365bd">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Beleid_Primair1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Beleid_Primair"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -114,7 +114,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Deelbeleid_Secundair-a746e5ab-4215-491b-850b-6cd82f2cbeb4">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Deelbeleid_Secundair1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Deelbeleid_Secundair"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -123,7 +123,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Persbericht_Secundair-0a485bac-1b1e-485c-b0c7-72082a1f9cbe">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Persbericht_Secundair1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Map1Persbericht_Secundair"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -132,7 +132,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Primair_Verzender-21887ef5-567c-4ec2-8d8b-695dcebb63ab">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxPrimair_Verzender1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxPrimair_Verzender"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -141,7 +141,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Secundair_Afzender-f8384c22-f48b-406a-bf9d-f5a55de3661f">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxSecundair_Afzender1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxSecundair_Afzender"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -150,7 +150,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tertitair_AfzenderDeelbeleid-50523817-cc12-457b-af67-8523a36ee230">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxTertitair_AfzenderDeelbeleid1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Persstatistiek_template.xlsxTertitair_AfzenderDeelbeleid"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="158">
   <si>
     <t>Beleid</t>
   </si>
@@ -627,6 +627,12 @@
   </si>
   <si>
     <t>Maand</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -718,9 +724,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -740,8 +761,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,7 +784,27 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -910,24 +955,37 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +1001,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Primair_Beleid" displayName="Primair_Beleid" ref="A3:A11" totalsRowShown="0" headerRowDxfId="6" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabel8" displayName="Tabel8" ref="A1:N4" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
+  <autoFilter ref="A1:N4"/>
+  <tableColumns count="14">
+    <tableColumn id="2" name="Kwartaal"/>
+    <tableColumn id="3" name="Verzender"/>
+    <tableColumn id="4" name="Afzender"/>
+    <tableColumn id="5" name="Onderwerp"/>
+    <tableColumn id="6" name="Datum PC" dataDxfId="9"/>
+    <tableColumn id="7" name="Pu bij Pb"/>
+    <tableColumn id="8" name="Persreturn"/>
+    <tableColumn id="9" name="Alleen web"/>
+    <tableColumn id="10" name="TV"/>
+    <tableColumn id="11" name="Beleid"/>
+    <tableColumn id="12" name="Deelbeleid"/>
+    <tableColumn id="13" name="Soort"/>
+    <tableColumn id="14" name="Datum"/>
+    <tableColumn id="15" name="Maand"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Primair_Beleid" displayName="Primair_Beleid" ref="A3:A11" totalsRowShown="0" headerRowDxfId="8" dataCellStyle="Standaard 2">
   <autoFilter ref="A3:A11"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Beleid" dataCellStyle="Standaard 2"/>
@@ -952,53 +1033,56 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Primair_Verzender" displayName="Primair_Verzender" ref="C3:C7" totalsRowShown="0" dataDxfId="5">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Primair_Verzender" displayName="Primair_Verzender" ref="C3:C7" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="C3:C7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Verzender" dataDxfId="4"/>
+    <tableColumn id="1" name="Verzender" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Secundair_Deelbeleid" displayName="Secundair_Deelbeleid" ref="H3:I73" headerRowCellStyle="Standaard" dataCellStyle="Standaard">
   <autoFilter ref="H3:I73"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Beleid" totalsRowLabel="Totaal" totalsRowDxfId="3" dataCellStyle="Standaard"/>
-    <tableColumn id="2" name="Deelbeleid" totalsRowFunction="count" totalsRowDxfId="2" dataCellStyle="Standaard"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Secundair_Afzender" displayName="Secundair_Afzender" ref="K3:L59" totalsRowShown="0">
-  <autoFilter ref="K3:L59"/>
-  <sortState ref="K2:L56">
-    <sortCondition ref="L55"/>
+  <sortState ref="H4:I73">
+    <sortCondition ref="H3:H73"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Verzender"/>
-    <tableColumn id="2" name="Afzender" dataDxfId="1"/>
+    <tableColumn id="1" name="Beleid" totalsRowLabel="Totaal" totalsRowDxfId="5" dataCellStyle="Standaard"/>
+    <tableColumn id="2" name="Deelbeleid" totalsRowFunction="count" totalsRowDxfId="4" dataCellStyle="Standaard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Secundair_Afzender" displayName="Secundair_Afzender" ref="K3:L59" totalsRowShown="0">
+  <autoFilter ref="K3:L59"/>
+  <sortState ref="K4:L59">
+    <sortCondition ref="K3"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Verzender"/>
+    <tableColumn id="2" name="Afzender" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tertitair_AfzenderDeelbeleid" displayName="Tertitair_AfzenderDeelbeleid" ref="R3:S59" totalsRowShown="0">
   <autoFilter ref="R3:S59"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Afzender" dataDxfId="0"/>
+    <tableColumn id="1" name="Afzender" dataDxfId="2"/>
     <tableColumn id="2" name="Deelbeleid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Primair_Persbericht" displayName="Primair_Persbericht" ref="E3:E9" totalsRowShown="0" dataCellStyle="Standaard 2">
   <autoFilter ref="E3:E9"/>
   <tableColumns count="1">
@@ -1008,7 +1092,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tertiair_AfzenderBeleid" displayName="Tertiair_AfzenderBeleid" ref="O3:P4" insertRow="1" totalsRowShown="0">
   <autoFilter ref="O3:P4"/>
   <tableColumns count="2">
@@ -1282,114 +1366,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 J1:K1">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"Q1,Q2,Q3,Q4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>Verzender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Afzenders</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>Beleid</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>Persbericht</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:I1048576">
+      <formula1>"Ja, Nee"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Enkel Datums" sqref="E1:E1048576">
+      <formula1>1011901</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enkel Datums" sqref="M1:M1048576">
+      <formula1>1011901</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>OFFSET(Dependencies!$H3, MATCH($J2, INDIRECT("Dependencies!H4:H"&amp;ROWS(Dependencies!H:H)),0), 1,COUNTIF(Dependencies!H:H,$J2),1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2</xm:sqref>
+          <xm:sqref>K2:K4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>OFFSET(Dependencies!$H5, MATCH($J5, INDIRECT("Dependencies!H4:H"&amp;ROWS(Dependencies!H:H)),0), 1,COUNTIF(Dependencies!H:H,$J5),1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>K5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1399,10 +1520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blad2"/>
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,32 +1551,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1510,10 +1632,10 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>102</v>
@@ -1541,10 +1663,10 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>105</v>
@@ -1569,10 +1691,10 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>87</v>
@@ -1600,10 +1722,10 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>88</v>
@@ -1626,10 +1748,10 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>112</v>
@@ -1655,10 +1777,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>126</v>
@@ -1675,10 +1797,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>104</v>
@@ -1695,10 +1817,10 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>125</v>
@@ -1713,10 +1835,10 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>97</v>
@@ -1734,10 +1856,10 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>118</v>
@@ -1752,10 +1874,10 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>90</v>
@@ -1773,10 +1895,10 @@
         <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>82</v>
@@ -1797,7 +1919,7 @@
         <v>76</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>65</v>
@@ -1817,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>110</v>
@@ -1837,7 +1959,7 @@
         <v>76</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>85</v>
@@ -1857,7 +1979,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>89</v>
@@ -1874,7 +1996,7 @@
         <v>76</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>129</v>
@@ -1891,7 +2013,7 @@
         <v>76</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>128</v>
@@ -1908,7 +2030,7 @@
         <v>76</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>124</v>
@@ -1928,7 +2050,7 @@
         <v>76</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>95</v>
@@ -1947,8 +2069,8 @@
       <c r="K24" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>127</v>
+      <c r="L24" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>127</v>
@@ -1965,7 +2087,7 @@
         <v>76</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>86</v>
@@ -1985,7 +2107,7 @@
         <v>76</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>113</v>
@@ -2005,7 +2127,7 @@
         <v>76</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>101</v>
@@ -2024,8 +2146,8 @@
       <c r="K28" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>83</v>
+      <c r="L28" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>83</v>
@@ -2042,10 +2164,10 @@
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>122</v>
@@ -2059,10 +2181,10 @@
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>119</v>
@@ -2076,10 +2198,10 @@
         <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>115</v>
@@ -2099,7 +2221,7 @@
         <v>76</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>66</v>
@@ -2116,10 +2238,10 @@
         <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>96</v>
@@ -2133,10 +2255,10 @@
         <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>111</v>
@@ -2153,7 +2275,7 @@
         <v>76</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>98</v>
@@ -2170,7 +2292,7 @@
         <v>76</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>114</v>
@@ -2190,7 +2312,7 @@
         <v>76</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>81</v>
@@ -2210,7 +2332,7 @@
         <v>76</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>99</v>
@@ -2227,10 +2349,10 @@
         <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>80</v>
@@ -2247,7 +2369,7 @@
         <v>76</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>116</v>
@@ -2266,8 +2388,8 @@
       <c r="K41" t="s">
         <v>76</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>120</v>
+      <c r="L41" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>120</v>
@@ -2287,7 +2409,7 @@
         <v>76</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>92</v>
@@ -2307,7 +2429,7 @@
         <v>76</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>108</v>
@@ -2323,8 +2445,8 @@
       <c r="K44" t="s">
         <v>76</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>84</v>
+      <c r="L44" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>84</v>
@@ -2341,10 +2463,10 @@
         <v>49</v>
       </c>
       <c r="K45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>106</v>
@@ -2361,10 +2483,10 @@
         <v>50</v>
       </c>
       <c r="K46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>109</v>
@@ -2380,8 +2502,8 @@
       <c r="K47" t="s">
         <v>76</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>100</v>
+      <c r="L47" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>100</v>
@@ -2398,7 +2520,7 @@
         <v>76</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>72</v>
@@ -2415,10 +2537,10 @@
         <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>94</v>
@@ -2740,7 +2862,7 @@
     <mergeCell ref="N1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:D9 F4:F9 E5:E9 E12:E16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
